--- a/Preliminary Schedule.xlsx
+++ b/Preliminary Schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>a</t>
   </si>
@@ -38,6 +38,61 @@
   </si>
   <si>
     <t>task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start date </t>
+  </si>
+  <si>
+    <t>end date</t>
+  </si>
+  <si>
+    <t>time (day)</t>
+  </si>
+  <si>
+    <t>Content management project</t>
+  </si>
+  <si>
+    <t>Search for suitable vendors
+Advertise on internet, newspaper</t>
+  </si>
+  <si>
+    <t>send request for further information to vendors</t>
+  </si>
+  <si>
+    <t>define software evaluation process</t>
+  </si>
+  <si>
+    <t>prepare request for propose</t>
+  </si>
+  <si>
+    <t>send request for proposal to vendors</t>
+  </si>
+  <si>
+    <t>receive and evaluate further information from vendor</t>
+  </si>
+  <si>
+    <t>receive and evaluate proposal from vendor</t>
+  </si>
+  <si>
+    <t>vendor demonstrate their solution</t>
+  </si>
+  <si>
+    <t>discuss with customer about proposed solutions</t>
+  </si>
+  <si>
+    <t>set up enviroment for testing and benchmarking</t>
+  </si>
+  <si>
+    <t>test and benchmark</t>
+  </si>
+  <si>
+    <t>negotiate with selected vendor</t>
+  </si>
+  <si>
+    <t>testing, benchmarking, negotiaton with second selected vendor (optional)</t>
+  </si>
+  <si>
+    <t>testing, benchmarking, negotiaton with third selected vendor (optional)</t>
   </si>
 </sst>
 </file>
@@ -45,11 +100,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -76,11 +139,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -121,47 +205,120 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$B$1</c:f>
+              <c:f>Sheet1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>start</c:v>
+                  <c:v>start date </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:noFill/>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$A$2:$A$4</c:f>
+              <c:f>Sheet1!$A$2:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>a</c:v>
+                  <c:v>Content management project</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>b</c:v>
+                  <c:v>Search for suitable vendors
+Advertise on internet, newspaper</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>c</c:v>
+                  <c:v>define software evaluation process</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>prepare request for propose</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>send request for further information to vendors</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>receive and evaluate further information from vendor</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>send request for proposal to vendors</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>receive and evaluate proposal from vendor</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>vendor demonstrate their solution</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>discuss with customer about proposed solutions</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>set up enviroment for testing and benchmarking</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>test and benchmark</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>negotiate with selected vendor</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>testing, benchmarking, negotiaton with second selected vendor (optional)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>testing, benchmarking, negotiaton with third selected vendor (optional)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$B$2:$B$4</c:f>
+              <c:f>Sheet1!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>42430</c:v>
-                </c:pt>
+                <c:ptCount val="15"/>
                 <c:pt idx="1">
-                  <c:v>42432</c:v>
+                  <c:v>42461</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42432</c:v>
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42468</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42469</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42474</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42475</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42483</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42487</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42495</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42498</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42499</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42502</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42507</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -172,11 +329,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$C$1</c:f>
+              <c:f>Sheet1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>end</c:v>
+                  <c:v>end date</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -184,35 +341,105 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$A$2:$A$4</c:f>
+              <c:f>Sheet1!$A$2:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>a</c:v>
+                  <c:v>Content management project</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>b</c:v>
+                  <c:v>Search for suitable vendors
+Advertise on internet, newspaper</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>c</c:v>
+                  <c:v>define software evaluation process</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>prepare request for propose</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>send request for further information to vendors</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>receive and evaluate further information from vendor</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>send request for proposal to vendors</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>receive and evaluate proposal from vendor</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>vendor demonstrate their solution</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>discuss with customer about proposed solutions</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>set up enviroment for testing and benchmarking</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>test and benchmark</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>negotiate with selected vendor</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>testing, benchmarking, negotiaton with second selected vendor (optional)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>testing, benchmarking, negotiaton with third selected vendor (optional)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$D$2:$D$4</c:f>
+              <c:f>Sheet1!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:ptCount val="15"/>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -228,20 +455,34 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="79223040"/>
-        <c:axId val="80908288"/>
+        <c:axId val="99783424"/>
+        <c:axId val="99784960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79223040"/>
+        <c:axId val="99783424"/>
         <c:scaling>
-          <c:orientation val="minMax"/>
+          <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorTickMark val="out"/>
+        <c:numFmt formatCode="mm/dd/yy;@" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80908288"/>
+        <c:spPr>
+          <a:ln w="25400"/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="99784960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -249,27 +490,26 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80908288"/>
+        <c:axId val="99784960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="42520"/>
+          <c:min val="42461"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="t"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d;@" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79223040"/>
+        <c:crossAx val="99783424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="7"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -286,16 +526,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -604,24 +844,1001 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E1:E2"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="68.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="9">
+        <v>42461</v>
+      </c>
+      <c r="C3" s="9">
+        <f>B3+D3-1</f>
+        <v>42467</v>
+      </c>
+      <c r="D3" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="6">
+        <v>42461</v>
+      </c>
+      <c r="C4" s="9">
+        <f t="shared" ref="C4:C67" si="0">B4+D4-1</f>
+        <v>42467</v>
+      </c>
+      <c r="D4" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="6">
+        <v>42461</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" si="0"/>
+        <v>42467</v>
+      </c>
+      <c r="D5" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="6">
+        <v>42468</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" si="0"/>
+        <v>42468</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="6">
+        <v>42469</v>
+      </c>
+      <c r="C7" s="9">
+        <f t="shared" si="0"/>
+        <v>42473</v>
+      </c>
+      <c r="D7" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="6">
+        <v>42474</v>
+      </c>
+      <c r="C8" s="9">
+        <f t="shared" si="0"/>
+        <v>42474</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="6">
+        <v>42475</v>
+      </c>
+      <c r="C9" s="9">
+        <f t="shared" si="0"/>
+        <v>42481</v>
+      </c>
+      <c r="D9" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="6">
+        <v>42483</v>
+      </c>
+      <c r="C10" s="9">
+        <f t="shared" si="0"/>
+        <v>42485</v>
+      </c>
+      <c r="D10" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="6">
+        <v>42487</v>
+      </c>
+      <c r="C11" s="9">
+        <f t="shared" si="0"/>
+        <v>42493</v>
+      </c>
+      <c r="D11" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="6">
+        <v>42495</v>
+      </c>
+      <c r="C12" s="9">
+        <f t="shared" si="0"/>
+        <v>42496</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="6">
+        <v>42498</v>
+      </c>
+      <c r="C13" s="9">
+        <f t="shared" si="0"/>
+        <v>42498</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="6">
+        <v>42499</v>
+      </c>
+      <c r="C14" s="9">
+        <f t="shared" si="0"/>
+        <v>42501</v>
+      </c>
+      <c r="D14" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="6">
+        <v>42502</v>
+      </c>
+      <c r="C15" s="9">
+        <f t="shared" si="0"/>
+        <v>42506</v>
+      </c>
+      <c r="D15" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="6">
+        <v>42507</v>
+      </c>
+      <c r="C16" s="9">
+        <f t="shared" si="0"/>
+        <v>42511</v>
+      </c>
+      <c r="D16" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D50" s="5"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D51" s="5"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D56" s="5"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D58" s="5"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D59" s="5"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D60" s="5"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D61" s="5"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D62" s="5"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D63" s="5"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D64" s="5"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D65" s="5"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D66" s="5"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D67" s="5"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="9">
+        <f t="shared" ref="C68:C99" si="1">B68+D68-1</f>
+        <v>-1</v>
+      </c>
+      <c r="D68" s="5"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="9">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="D69" s="5"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="9">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="D70" s="5"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="9">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="D71" s="5"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="9">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="D72" s="5"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="9">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="D73" s="5"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="9">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="D74" s="5"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="9">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="D75" s="5"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="9">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="D76" s="5"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="9">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="D77" s="5"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="9">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="D78" s="5"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="9">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="D79" s="5"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="9">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="D80" s="5"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="9">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="D81" s="5"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="9">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="D82" s="5"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="9">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="D83" s="5"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="9">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="D84" s="5"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="9">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="D85" s="5"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="9">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="D86" s="5"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="9">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="D87" s="5"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="9">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="D88" s="5"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="9">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="D89" s="5"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="9">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="D90" s="5"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="9">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="D91" s="5"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="9">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="D92" s="5"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="9">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="D93" s="5"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="9">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="D94" s="5"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="9">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="D95" s="5"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="9">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="D96" s="5"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="9">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="D97" s="2"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="9">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="9">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="D99" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -658,7 +1875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
